--- a/artfynd/A 2486-2026 artfynd.xlsx
+++ b/artfynd/A 2486-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131009309</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>131009307</v>
       </c>
       <c r="B3" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>131009298</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>131009294</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>131009286</v>
       </c>
       <c r="B6" t="n">
-        <v>80248</v>
+        <v>80252</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131009297</v>
+        <v>131009283</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1278,42 +1278,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>589752</v>
+        <v>589968</v>
       </c>
       <c r="R7" t="n">
-        <v>6911214</v>
+        <v>6911120</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,7 +1337,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1355,12 +1347,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:18</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1390,7 +1377,7 @@
         <v>131009287</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1507,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131009270</v>
+        <v>131009297</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1550,10 +1537,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>589700</v>
+        <v>589752</v>
       </c>
       <c r="R9" t="n">
-        <v>6911274</v>
+        <v>6911214</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,7 +1572,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1595,7 +1582,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1627,10 +1614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131009283</v>
+        <v>131009270</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1638,34 +1625,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>589968</v>
+        <v>589700</v>
       </c>
       <c r="R10" t="n">
-        <v>6911120</v>
+        <v>6911274</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,7 +1692,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1707,7 +1702,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1737,7 +1737,7 @@
         <v>131009276</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         <v>131009290</v>
       </c>
       <c r="B12" t="n">
-        <v>80217</v>
+        <v>80221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>131009284</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>131009289</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>131009303</v>
       </c>
       <c r="B15" t="n">
-        <v>80248</v>
+        <v>80252</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>131009272</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131009282</v>
+        <v>131009301</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>589986</v>
+        <v>589700</v>
       </c>
       <c r="R17" t="n">
-        <v>6911103</v>
+        <v>6911168</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2548,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131009301</v>
+        <v>131009282</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2591,10 +2591,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>589700</v>
+        <v>589986</v>
       </c>
       <c r="R18" t="n">
-        <v>6911168</v>
+        <v>6911103</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2671,7 +2671,7 @@
         <v>131009268</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>131009293</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>131009300</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131009304</v>
+        <v>131009308</v>
       </c>
       <c r="B22" t="n">
-        <v>58039</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3039,46 +3039,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>589753</v>
+        <v>589686</v>
       </c>
       <c r="R22" t="n">
-        <v>6911167</v>
+        <v>6911077</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3110,7 +3098,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3120,7 +3108,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3150,7 +3138,7 @@
         <v>131009305</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3270,7 +3258,7 @@
         <v>131009498</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3387,10 +3375,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131009308</v>
+        <v>131009304</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>58043</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3398,34 +3386,46 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>589686</v>
+        <v>589753</v>
       </c>
       <c r="R25" t="n">
-        <v>6911077</v>
+        <v>6911167</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3497,7 +3497,7 @@
         <v>131009295</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>131009269</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         <v>131009271</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
         <v>131009281</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3974,53 +3974,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131009302</v>
+        <v>131009285</v>
       </c>
       <c r="B30" t="n">
-        <v>57880</v>
+        <v>80252</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>589716</v>
+        <v>589879</v>
       </c>
       <c r="R30" t="n">
-        <v>6911140</v>
+        <v>6911153</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4052,7 +4044,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4062,12 +4054,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:54</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4094,10 +4081,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131009306</v>
+        <v>131009302</v>
       </c>
       <c r="B31" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4137,10 +4124,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>589791</v>
+        <v>589716</v>
       </c>
       <c r="R31" t="n">
-        <v>6911148</v>
+        <v>6911140</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4172,7 +4159,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4182,12 +4169,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>färska och äldre ringhack på tall</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4214,45 +4201,53 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131009285</v>
+        <v>131009306</v>
       </c>
       <c r="B32" t="n">
-        <v>80248</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>589879</v>
+        <v>589791</v>
       </c>
       <c r="R32" t="n">
-        <v>6911153</v>
+        <v>6911148</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4284,7 +4279,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4294,7 +4289,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4324,7 +4324,7 @@
         <v>131009499</v>
       </c>
       <c r="B33" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>131009310</v>
       </c>
       <c r="B34" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>131009292</v>
       </c>
       <c r="B35" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>131009279</v>
       </c>
       <c r="B36" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>131009273</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>131009278</v>
       </c>
       <c r="B38" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>131009299</v>
       </c>
       <c r="B39" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5148,53 +5148,45 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131009275</v>
+        <v>131009291</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>80252</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>589844</v>
+        <v>589791</v>
       </c>
       <c r="R40" t="n">
-        <v>6911365</v>
+        <v>6911200</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5226,7 +5218,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5236,12 +5228,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5268,45 +5255,53 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131009291</v>
+        <v>131009275</v>
       </c>
       <c r="B41" t="n">
-        <v>80248</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>589791</v>
+        <v>589844</v>
       </c>
       <c r="R41" t="n">
-        <v>6911200</v>
+        <v>6911365</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5338,7 +5333,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5348,7 +5343,12 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD41" t="b">

--- a/artfynd/A 2486-2026 artfynd.xlsx
+++ b/artfynd/A 2486-2026 artfynd.xlsx
@@ -1854,32 +1854,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131009290</v>
+        <v>131009303</v>
       </c>
       <c r="B12" t="n">
-        <v>80221</v>
+        <v>80252</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>392</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1889,10 +1889,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>589798</v>
+        <v>589748</v>
       </c>
       <c r="R12" t="n">
-        <v>6911212</v>
+        <v>6911130</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2201,45 +2201,53 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131009303</v>
+        <v>131009272</v>
       </c>
       <c r="B15" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>589748</v>
+        <v>589700</v>
       </c>
       <c r="R15" t="n">
-        <v>6911130</v>
+        <v>6911353</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2271,7 +2279,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>12:13</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2281,7 +2289,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>12:13</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2308,7 +2321,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131009272</v>
+        <v>131009301</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2354,7 +2367,7 @@
         <v>589700</v>
       </c>
       <c r="R16" t="n">
-        <v>6911353</v>
+        <v>6911168</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2386,7 +2399,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2396,7 +2409,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2428,7 +2441,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131009301</v>
+        <v>131009282</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2471,10 +2484,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>589700</v>
+        <v>589986</v>
       </c>
       <c r="R17" t="n">
-        <v>6911168</v>
+        <v>6911103</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2506,7 +2519,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2516,7 +2529,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2548,7 +2561,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131009282</v>
+        <v>131009268</v>
       </c>
       <c r="B18" t="n">
         <v>57884</v>
@@ -2591,10 +2604,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>589986</v>
+        <v>589619</v>
       </c>
       <c r="R18" t="n">
-        <v>6911103</v>
+        <v>6911299</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2626,7 +2639,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2636,7 +2649,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2668,7 +2681,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131009268</v>
+        <v>131009293</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2711,10 +2724,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>589619</v>
+        <v>589819</v>
       </c>
       <c r="R19" t="n">
-        <v>6911299</v>
+        <v>6911184</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2746,7 +2759,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2756,7 +2769,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -2788,7 +2801,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131009293</v>
+        <v>131009300</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2831,10 +2844,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>589819</v>
+        <v>589716</v>
       </c>
       <c r="R20" t="n">
-        <v>6911184</v>
+        <v>6911186</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2866,7 +2879,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2876,7 +2889,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -2908,10 +2921,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131009300</v>
+        <v>131009308</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2919,42 +2932,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>589716</v>
+        <v>589686</v>
       </c>
       <c r="R21" t="n">
-        <v>6911186</v>
+        <v>6911077</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2986,7 +2991,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:02</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2996,12 +3001,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:02</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3028,10 +3028,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131009308</v>
+        <v>131009305</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3039,34 +3039,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>589686</v>
+        <v>589757</v>
       </c>
       <c r="R22" t="n">
-        <v>6911077</v>
+        <v>6911178</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3098,7 +3106,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3108,7 +3116,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:43</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3135,7 +3148,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131009305</v>
+        <v>131009498</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -3178,10 +3191,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>589757</v>
+        <v>589629</v>
       </c>
       <c r="R23" t="n">
-        <v>6911178</v>
+        <v>6911040</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3213,7 +3226,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3223,7 +3236,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3255,10 +3268,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131009498</v>
+        <v>131009304</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3266,29 +3279,33 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -3298,10 +3315,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>589629</v>
+        <v>589753</v>
       </c>
       <c r="R24" t="n">
-        <v>6911040</v>
+        <v>6911167</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3333,7 +3350,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3343,12 +3360,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:02</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3375,10 +3387,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131009304</v>
+        <v>131009295</v>
       </c>
       <c r="B25" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3386,33 +3398,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -3422,10 +3430,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>589753</v>
+        <v>589741</v>
       </c>
       <c r="R25" t="n">
-        <v>6911167</v>
+        <v>6911192</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3457,7 +3465,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3467,7 +3475,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3494,7 +3507,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131009295</v>
+        <v>131009269</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3537,10 +3550,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>589741</v>
+        <v>589671</v>
       </c>
       <c r="R26" t="n">
-        <v>6911192</v>
+        <v>6911306</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3572,7 +3585,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3582,7 +3595,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3614,7 +3627,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131009269</v>
+        <v>131009271</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3657,10 +3670,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>589671</v>
+        <v>589680</v>
       </c>
       <c r="R27" t="n">
-        <v>6911306</v>
+        <v>6911276</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3692,7 +3705,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3702,7 +3715,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3734,7 +3747,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131009271</v>
+        <v>131009281</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3777,10 +3790,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>589680</v>
+        <v>589899</v>
       </c>
       <c r="R28" t="n">
-        <v>6911276</v>
+        <v>6911300</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3812,7 +3825,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3822,7 +3835,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -3854,53 +3867,45 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131009281</v>
+        <v>131009285</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>589899</v>
+        <v>589879</v>
       </c>
       <c r="R29" t="n">
-        <v>6911300</v>
+        <v>6911153</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3932,7 +3937,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3942,12 +3947,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:42</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3974,45 +3974,53 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131009285</v>
+        <v>131009302</v>
       </c>
       <c r="B30" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>589879</v>
+        <v>589716</v>
       </c>
       <c r="R30" t="n">
-        <v>6911153</v>
+        <v>6911140</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4044,7 +4052,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4054,7 +4062,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4081,7 +4094,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131009302</v>
+        <v>131009306</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4124,10 +4137,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>589716</v>
+        <v>589791</v>
       </c>
       <c r="R31" t="n">
-        <v>6911140</v>
+        <v>6911148</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4159,7 +4172,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4169,12 +4182,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4201,7 +4214,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131009306</v>
+        <v>131009499</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4244,10 +4257,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>589791</v>
+        <v>589603</v>
       </c>
       <c r="R32" t="n">
-        <v>6911148</v>
+        <v>6911052</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4279,7 +4292,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>08:56</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4289,12 +4302,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>08:56</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>färska och äldre ringhack på tall</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4321,7 +4334,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131009499</v>
+        <v>131009310</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4364,10 +4377,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>589603</v>
+        <v>589664</v>
       </c>
       <c r="R33" t="n">
-        <v>6911052</v>
+        <v>6911075</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4399,7 +4412,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4409,12 +4422,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>garnlav</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4441,7 +4454,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131009310</v>
+        <v>131009292</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4484,10 +4497,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>589664</v>
+        <v>589800</v>
       </c>
       <c r="R34" t="n">
-        <v>6911075</v>
+        <v>6911205</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4519,7 +4532,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4529,12 +4542,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>garnlav</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4561,7 +4574,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131009292</v>
+        <v>131009279</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4604,10 +4617,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>589800</v>
+        <v>589872</v>
       </c>
       <c r="R35" t="n">
-        <v>6911205</v>
+        <v>6911286</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4639,7 +4652,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4649,7 +4662,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -4681,10 +4694,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131009279</v>
+        <v>131009273</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4692,42 +4705,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>589872</v>
+        <v>589819</v>
       </c>
       <c r="R36" t="n">
-        <v>6911286</v>
+        <v>6911312</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4759,7 +4764,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4769,12 +4774,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>11:45</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4801,10 +4801,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131009273</v>
+        <v>131009278</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4812,34 +4812,42 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>589819</v>
+        <v>589872</v>
       </c>
       <c r="R37" t="n">
-        <v>6911312</v>
+        <v>6911335</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4871,7 +4879,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4881,7 +4889,12 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>11:49</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4908,7 +4921,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131009278</v>
+        <v>131009299</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -4951,10 +4964,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>589872</v>
+        <v>589728</v>
       </c>
       <c r="R38" t="n">
-        <v>6911335</v>
+        <v>6911206</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4986,7 +4999,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4996,7 +5009,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -5028,53 +5041,45 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131009299</v>
+        <v>131009291</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>589728</v>
+        <v>589791</v>
       </c>
       <c r="R39" t="n">
-        <v>6911206</v>
+        <v>6911200</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5106,7 +5111,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5116,12 +5121,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>10:07</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5148,45 +5148,53 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131009291</v>
+        <v>131009275</v>
       </c>
       <c r="B40" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>589791</v>
+        <v>589844</v>
       </c>
       <c r="R40" t="n">
-        <v>6911200</v>
+        <v>6911365</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5218,7 +5226,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5228,7 +5236,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5255,53 +5268,45 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131009275</v>
+        <v>131009290</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>80221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>392</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>589844</v>
+        <v>589798</v>
       </c>
       <c r="R41" t="n">
-        <v>6911365</v>
+        <v>6911212</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5333,7 +5338,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5343,12 +5348,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AD41" t="b">

--- a/artfynd/A 2486-2026 artfynd.xlsx
+++ b/artfynd/A 2486-2026 artfynd.xlsx
@@ -920,53 +920,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131009298</v>
+        <v>131009286</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>589735</v>
+        <v>589865</v>
       </c>
       <c r="R4" t="n">
-        <v>6911227</v>
+        <v>6911173</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,7 +990,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1008,12 +1000,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:12</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1040,7 +1027,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131009294</v>
+        <v>131009298</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1083,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>589787</v>
+        <v>589735</v>
       </c>
       <c r="R5" t="n">
-        <v>6911183</v>
+        <v>6911227</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1105,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1128,7 +1115,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1160,45 +1147,53 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131009286</v>
+        <v>131009294</v>
       </c>
       <c r="B6" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>589865</v>
+        <v>589787</v>
       </c>
       <c r="R6" t="n">
-        <v>6911173</v>
+        <v>6911183</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1230,7 +1225,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1240,7 +1235,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1494,7 +1494,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131009297</v>
+        <v>131009270</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1537,10 +1537,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>589752</v>
+        <v>589700</v>
       </c>
       <c r="R9" t="n">
-        <v>6911214</v>
+        <v>6911274</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1614,7 +1614,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131009270</v>
+        <v>131009297</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>589700</v>
+        <v>589752</v>
       </c>
       <c r="R10" t="n">
-        <v>6911274</v>
+        <v>6911214</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2321,7 +2321,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131009301</v>
+        <v>131009282</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>589700</v>
+        <v>589986</v>
       </c>
       <c r="R16" t="n">
-        <v>6911168</v>
+        <v>6911103</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2441,7 +2441,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131009282</v>
+        <v>131009301</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>589986</v>
+        <v>589700</v>
       </c>
       <c r="R17" t="n">
-        <v>6911103</v>
+        <v>6911168</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3387,7 +3387,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131009295</v>
+        <v>131009269</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>589741</v>
+        <v>589671</v>
       </c>
       <c r="R25" t="n">
-        <v>6911192</v>
+        <v>6911306</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -3507,7 +3507,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131009269</v>
+        <v>131009271</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>589671</v>
+        <v>589680</v>
       </c>
       <c r="R26" t="n">
-        <v>6911306</v>
+        <v>6911276</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3627,7 +3627,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131009271</v>
+        <v>131009281</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3670,10 +3670,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>589680</v>
+        <v>589899</v>
       </c>
       <c r="R27" t="n">
-        <v>6911276</v>
+        <v>6911300</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3747,7 +3747,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131009281</v>
+        <v>131009295</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>589899</v>
+        <v>589741</v>
       </c>
       <c r="R28" t="n">
-        <v>6911300</v>
+        <v>6911192</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -3867,45 +3867,53 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131009285</v>
+        <v>131009302</v>
       </c>
       <c r="B29" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>589879</v>
+        <v>589716</v>
       </c>
       <c r="R29" t="n">
-        <v>6911153</v>
+        <v>6911140</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3937,7 +3945,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3947,7 +3955,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3974,7 +3987,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131009302</v>
+        <v>131009306</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4017,10 +4030,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>589716</v>
+        <v>589791</v>
       </c>
       <c r="R30" t="n">
-        <v>6911140</v>
+        <v>6911148</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4052,7 +4065,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4062,12 +4075,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4094,53 +4107,45 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131009306</v>
+        <v>131009285</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>589791</v>
+        <v>589879</v>
       </c>
       <c r="R31" t="n">
-        <v>6911148</v>
+        <v>6911153</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4172,7 +4177,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4182,12 +4187,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:38</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>färska och äldre ringhack på tall</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD31" t="b">

--- a/artfynd/A 2486-2026 artfynd.xlsx
+++ b/artfynd/A 2486-2026 artfynd.xlsx
@@ -2921,10 +2921,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131009308</v>
+        <v>131009304</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2932,34 +2932,46 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>589686</v>
+        <v>589753</v>
       </c>
       <c r="R21" t="n">
-        <v>6911077</v>
+        <v>6911167</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2991,7 +3003,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3001,7 +3013,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3028,10 +3040,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131009305</v>
+        <v>131009308</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3039,42 +3051,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>589757</v>
+        <v>589686</v>
       </c>
       <c r="R22" t="n">
-        <v>6911178</v>
+        <v>6911077</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3106,7 +3110,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3116,12 +3120,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:43</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3148,7 +3147,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131009498</v>
+        <v>131009305</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -3191,10 +3190,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>589629</v>
+        <v>589757</v>
       </c>
       <c r="R23" t="n">
-        <v>6911040</v>
+        <v>6911178</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3226,7 +3225,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3236,7 +3235,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3268,10 +3267,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131009304</v>
+        <v>131009498</v>
       </c>
       <c r="B24" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3279,33 +3278,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -3315,10 +3310,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>589753</v>
+        <v>589629</v>
       </c>
       <c r="R24" t="n">
-        <v>6911167</v>
+        <v>6911040</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3350,7 +3345,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3360,7 +3355,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:02</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 2486-2026 artfynd.xlsx
+++ b/artfynd/A 2486-2026 artfynd.xlsx
@@ -920,45 +920,53 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131009286</v>
+        <v>131009298</v>
       </c>
       <c r="B4" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>589865</v>
+        <v>589735</v>
       </c>
       <c r="R4" t="n">
-        <v>6911173</v>
+        <v>6911227</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,7 +998,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1000,7 +1008,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:12</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1027,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131009298</v>
+        <v>131009294</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1070,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>589735</v>
+        <v>589787</v>
       </c>
       <c r="R5" t="n">
-        <v>6911227</v>
+        <v>6911183</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1105,7 +1118,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,7 +1128,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1147,53 +1160,45 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131009294</v>
+        <v>131009286</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>589787</v>
+        <v>589865</v>
       </c>
       <c r="R6" t="n">
-        <v>6911183</v>
+        <v>6911173</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1225,7 +1230,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1235,12 +1240,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:24</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131009283</v>
+        <v>131009297</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1278,34 +1278,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>589968</v>
+        <v>589752</v>
       </c>
       <c r="R7" t="n">
-        <v>6911120</v>
+        <v>6911214</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1337,7 +1345,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1347,7 +1355,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1614,10 +1627,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131009297</v>
+        <v>131009283</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1625,42 +1638,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>589752</v>
+        <v>589968</v>
       </c>
       <c r="R10" t="n">
-        <v>6911214</v>
+        <v>6911120</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1692,7 +1697,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1702,12 +1707,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:18</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -2321,7 +2321,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131009282</v>
+        <v>131009301</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>589986</v>
+        <v>589700</v>
       </c>
       <c r="R16" t="n">
-        <v>6911103</v>
+        <v>6911168</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2441,7 +2441,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131009301</v>
+        <v>131009282</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>589700</v>
+        <v>589986</v>
       </c>
       <c r="R17" t="n">
-        <v>6911168</v>
+        <v>6911103</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2921,10 +2921,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131009304</v>
+        <v>131009498</v>
       </c>
       <c r="B21" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2932,33 +2932,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -2968,10 +2964,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>589753</v>
+        <v>589629</v>
       </c>
       <c r="R21" t="n">
-        <v>6911167</v>
+        <v>6911040</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3003,7 +2999,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3013,7 +3009,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:02</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3147,10 +3148,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131009305</v>
+        <v>131009304</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3158,29 +3159,33 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3190,10 +3195,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>589757</v>
+        <v>589753</v>
       </c>
       <c r="R23" t="n">
-        <v>6911178</v>
+        <v>6911167</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3225,7 +3230,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3235,12 +3240,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:43</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3267,7 +3267,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131009498</v>
+        <v>131009305</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>589629</v>
+        <v>589757</v>
       </c>
       <c r="R24" t="n">
-        <v>6911040</v>
+        <v>6911178</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3387,7 +3387,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131009269</v>
+        <v>131009295</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>589671</v>
+        <v>589741</v>
       </c>
       <c r="R25" t="n">
-        <v>6911306</v>
+        <v>6911192</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -3507,7 +3507,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131009271</v>
+        <v>131009269</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>589680</v>
+        <v>589671</v>
       </c>
       <c r="R26" t="n">
-        <v>6911276</v>
+        <v>6911306</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>12:20</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3627,7 +3627,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131009281</v>
+        <v>131009271</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3670,10 +3670,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>589899</v>
+        <v>589680</v>
       </c>
       <c r="R27" t="n">
-        <v>6911300</v>
+        <v>6911276</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:42</t>
+          <t>12:20</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3747,7 +3747,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131009295</v>
+        <v>131009281</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>589741</v>
+        <v>589899</v>
       </c>
       <c r="R28" t="n">
-        <v>6911192</v>
+        <v>6911300</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>11:42</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -3867,53 +3867,45 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131009302</v>
+        <v>131009285</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>589716</v>
+        <v>589879</v>
       </c>
       <c r="R29" t="n">
-        <v>6911140</v>
+        <v>6911153</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3945,7 +3937,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3955,12 +3947,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>09:54</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3987,7 +3974,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131009306</v>
+        <v>131009302</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4030,10 +4017,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>589791</v>
+        <v>589716</v>
       </c>
       <c r="R30" t="n">
-        <v>6911148</v>
+        <v>6911140</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4065,7 +4052,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4075,12 +4062,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>färska och äldre ringhack på tall</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4107,45 +4094,53 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131009285</v>
+        <v>131009306</v>
       </c>
       <c r="B31" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>589879</v>
+        <v>589791</v>
       </c>
       <c r="R31" t="n">
-        <v>6911153</v>
+        <v>6911148</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4177,7 +4172,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4187,7 +4182,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:38</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -5041,45 +5041,53 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131009291</v>
+        <v>131009275</v>
       </c>
       <c r="B39" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>589791</v>
+        <v>589844</v>
       </c>
       <c r="R39" t="n">
-        <v>6911200</v>
+        <v>6911365</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5111,7 +5119,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5121,7 +5129,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5148,53 +5161,45 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131009275</v>
+        <v>131009291</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>589844</v>
+        <v>589791</v>
       </c>
       <c r="R40" t="n">
-        <v>6911365</v>
+        <v>6911200</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5226,7 +5231,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5236,12 +5241,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 2486-2026 artfynd.xlsx
+++ b/artfynd/A 2486-2026 artfynd.xlsx
@@ -920,53 +920,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131009298</v>
+        <v>131009286</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>589735</v>
+        <v>589865</v>
       </c>
       <c r="R4" t="n">
-        <v>6911227</v>
+        <v>6911173</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,7 +990,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1008,12 +1000,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:12</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1040,7 +1027,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131009294</v>
+        <v>131009298</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1083,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>589787</v>
+        <v>589735</v>
       </c>
       <c r="R5" t="n">
-        <v>6911183</v>
+        <v>6911227</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1105,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1128,7 +1115,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1160,45 +1147,53 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131009286</v>
+        <v>131009294</v>
       </c>
       <c r="B6" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>589865</v>
+        <v>589787</v>
       </c>
       <c r="R6" t="n">
-        <v>6911173</v>
+        <v>6911183</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1230,7 +1225,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1240,7 +1235,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:24</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131009297</v>
+        <v>131009283</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1278,42 +1278,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>589752</v>
+        <v>589968</v>
       </c>
       <c r="R7" t="n">
-        <v>6911214</v>
+        <v>6911120</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,7 +1337,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1355,12 +1347,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:18</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1387,7 +1374,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131009287</v>
+        <v>131009297</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1430,10 +1417,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>589835</v>
+        <v>589752</v>
       </c>
       <c r="R8" t="n">
-        <v>6911210</v>
+        <v>6911214</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,7 +1452,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1475,7 +1462,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1507,7 +1494,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131009270</v>
+        <v>131009287</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1550,10 +1537,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>589700</v>
+        <v>589835</v>
       </c>
       <c r="R9" t="n">
-        <v>6911274</v>
+        <v>6911210</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,7 +1572,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1595,7 +1582,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1627,10 +1614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131009283</v>
+        <v>131009270</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1638,34 +1625,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>589968</v>
+        <v>589700</v>
       </c>
       <c r="R10" t="n">
-        <v>6911120</v>
+        <v>6911274</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,7 +1692,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1707,7 +1702,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -2921,10 +2921,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131009498</v>
+        <v>131009308</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2932,42 +2932,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>589629</v>
+        <v>589686</v>
       </c>
       <c r="R21" t="n">
-        <v>6911040</v>
+        <v>6911077</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2999,7 +2991,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:02</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3009,12 +3001,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:02</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>09:17</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3041,10 +3028,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131009308</v>
+        <v>131009305</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3052,34 +3039,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>589686</v>
+        <v>589757</v>
       </c>
       <c r="R22" t="n">
-        <v>6911077</v>
+        <v>6911178</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3111,7 +3106,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3121,7 +3116,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:17</t>
+          <t>09:43</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3148,10 +3148,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131009304</v>
+        <v>131009498</v>
       </c>
       <c r="B23" t="n">
-        <v>58043</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3159,33 +3159,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3195,10 +3191,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>589753</v>
+        <v>589629</v>
       </c>
       <c r="R23" t="n">
-        <v>6911167</v>
+        <v>6911040</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3230,7 +3226,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3240,7 +3236,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:02</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3267,10 +3268,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131009305</v>
+        <v>131009304</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3278,29 +3279,33 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -3310,10 +3315,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>589757</v>
+        <v>589753</v>
       </c>
       <c r="R24" t="n">
-        <v>6911178</v>
+        <v>6911167</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3345,7 +3350,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3355,12 +3360,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>09:43</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -5041,53 +5041,45 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131009275</v>
+        <v>131009291</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>589844</v>
+        <v>589791</v>
       </c>
       <c r="R39" t="n">
-        <v>6911365</v>
+        <v>6911200</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5119,7 +5111,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5129,12 +5121,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5161,45 +5148,53 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131009291</v>
+        <v>131009275</v>
       </c>
       <c r="B40" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>589791</v>
+        <v>589844</v>
       </c>
       <c r="R40" t="n">
-        <v>6911200</v>
+        <v>6911365</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5231,7 +5226,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5241,7 +5236,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 2486-2026 artfynd.xlsx
+++ b/artfynd/A 2486-2026 artfynd.xlsx
@@ -920,45 +920,53 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131009286</v>
+        <v>131009298</v>
       </c>
       <c r="B4" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>589865</v>
+        <v>589735</v>
       </c>
       <c r="R4" t="n">
-        <v>6911173</v>
+        <v>6911227</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,7 +998,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1000,7 +1008,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:53</t>
+          <t>10:12</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1027,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131009298</v>
+        <v>131009294</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1070,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>589735</v>
+        <v>589787</v>
       </c>
       <c r="R5" t="n">
-        <v>6911227</v>
+        <v>6911183</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1105,7 +1118,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,7 +1128,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1147,53 +1160,45 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131009294</v>
+        <v>131009286</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>589787</v>
+        <v>589865</v>
       </c>
       <c r="R6" t="n">
-        <v>6911183</v>
+        <v>6911173</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1225,7 +1230,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1235,12 +1240,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:24</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:53</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131009283</v>
+        <v>131009297</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1278,34 +1278,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>589968</v>
+        <v>589752</v>
       </c>
       <c r="R7" t="n">
-        <v>6911120</v>
+        <v>6911214</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1337,7 +1345,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1347,7 +1355,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1374,7 +1387,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131009297</v>
+        <v>131009287</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1417,10 +1430,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>589752</v>
+        <v>589835</v>
       </c>
       <c r="R8" t="n">
-        <v>6911214</v>
+        <v>6911210</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1452,7 +1465,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1462,7 +1475,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:47</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1494,7 +1507,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131009287</v>
+        <v>131009270</v>
       </c>
       <c r="B9" t="n">
         <v>57884</v>
@@ -1537,10 +1550,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>589835</v>
+        <v>589700</v>
       </c>
       <c r="R9" t="n">
-        <v>6911210</v>
+        <v>6911274</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1572,7 +1585,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1582,7 +1595,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:47</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1614,10 +1627,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131009270</v>
+        <v>131009283</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1625,42 +1638,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>589700</v>
+        <v>589968</v>
       </c>
       <c r="R10" t="n">
-        <v>6911274</v>
+        <v>6911120</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1692,7 +1697,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1702,12 +1707,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:22</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1854,45 +1854,53 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131009303</v>
+        <v>131009284</v>
       </c>
       <c r="B12" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>589748</v>
+        <v>589966</v>
       </c>
       <c r="R12" t="n">
-        <v>6911130</v>
+        <v>6911126</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1924,7 +1932,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1934,7 +1942,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>11:01</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1961,53 +1974,45 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131009284</v>
+        <v>131009303</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>589966</v>
+        <v>589748</v>
       </c>
       <c r="R13" t="n">
-        <v>6911126</v>
+        <v>6911130</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2039,7 +2044,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2049,12 +2054,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:01</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>09:49</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -3867,45 +3867,53 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131009285</v>
+        <v>131009302</v>
       </c>
       <c r="B29" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>589879</v>
+        <v>589716</v>
       </c>
       <c r="R29" t="n">
-        <v>6911153</v>
+        <v>6911140</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3937,7 +3945,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3947,7 +3955,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>09:54</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3974,7 +3987,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131009302</v>
+        <v>131009306</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -4017,10 +4030,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>589716</v>
+        <v>589791</v>
       </c>
       <c r="R30" t="n">
-        <v>6911140</v>
+        <v>6911148</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4052,7 +4065,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4062,12 +4075,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4094,53 +4107,45 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131009306</v>
+        <v>131009285</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>589791</v>
+        <v>589879</v>
       </c>
       <c r="R31" t="n">
-        <v>6911148</v>
+        <v>6911153</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4172,7 +4177,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:38</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4182,12 +4187,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:38</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>färska och äldre ringhack på tall</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -5041,45 +5041,53 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131009291</v>
+        <v>131009275</v>
       </c>
       <c r="B39" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>589791</v>
+        <v>589844</v>
       </c>
       <c r="R39" t="n">
-        <v>6911200</v>
+        <v>6911365</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5111,7 +5119,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5121,7 +5129,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>11:53</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5148,53 +5161,45 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131009275</v>
+        <v>131009291</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Grössjöbergen, Mpd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>589844</v>
+        <v>589791</v>
       </c>
       <c r="R40" t="n">
-        <v>6911365</v>
+        <v>6911200</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5226,7 +5231,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:53</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5236,12 +5241,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:53</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AD40" t="b">
